--- a/results/I3_N5_M3_T30_C100_DepCentral_s2_P2_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s2_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.3960085937533</v>
+        <v>2275.602186823345</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.21600859374647</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.862542168054609</v>
+        <v>17.29261454069673</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.862542168054609</v>
+        <v>4.791701159296143</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.0900000000069</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>327.09</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.134510687494963</v>
+        <v>13.37221626484706</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -958,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.28323475891761</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.79170115929614</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1048,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,15 +1073,239 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.15499999999986</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>31.25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>30.69499999999985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.62999999999985</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>116.3399999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>108.2199999999999</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>102.0299999999999</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>111.3399999999999</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>120.4399999999999</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>80.12000000000059</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>68.63000000000059</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>69.17500000000058</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>70.34999999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>79.39000000000058</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>116.3399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>108.2199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>102.0299999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.3399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>120.4399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1503,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>106.1700000000004</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1514,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>112.4900000000004</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>102.5700000000004</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1536,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>110.05</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>107.6750000000004</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>104.4450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6750000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>103.7150000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5350000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>101.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.33999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.219999999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.029999999999929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.33999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>20.43999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1704,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.170000000000372</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.49000000000036</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -1726,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.57000000000037</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -1737,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.05</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.675000000000359</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
@@ -1759,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.445000000000577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1770,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.675000000000577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1781,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3.71500000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1792,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.53500000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1803,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1861,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.879999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1872,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.045</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1883,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1894,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1916,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1927,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1960,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1971,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1982,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1993,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2004,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2070,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2092,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2114,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,7 +2390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2166,7 +2401,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2177,7 +2412,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2188,7 +2423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2199,7 +2434,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2210,7 +2445,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2221,7 +2456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2232,7 +2467,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2243,7 +2478,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2254,7 +2489,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2265,7 +2500,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2276,7 +2511,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2287,7 +2522,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2298,7 +2533,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2309,12 +2544,67 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
